--- a/cocos-prog/03-tool/gj/map.xlsx
+++ b/cocos-prog/03-tool/gj/map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15680"/>
+    <workbookView windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>标题</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>繁體</t>
-  </si>
-  <si>
-    <t>种族 1:人2:妖3:鬼4:仙</t>
-  </si>
-  <si>
-    <t>地图类型：1主城 2野外</t>
   </si>
   <si>
     <t>int</t>
@@ -63,24 +57,6 @@
   </si>
   <si>
     <t>tc</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>傲来国/长安</t>
-  </si>
-  <si>
-    <t>天宫/灵山</t>
-  </si>
-  <si>
-    <t>地府</t>
-  </si>
-  <si>
-    <t>火焰山</t>
   </si>
 </sst>
 </file>
@@ -1288,20 +1264,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="4" width="13.9230769230769" customWidth="1"/>
-    <col min="5" max="5" width="23.7211538461538" customWidth="1"/>
-    <col min="6" max="6" width="29.3269230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,132 +1288,66 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
